--- a/01_Input/00_CO Validation/China - Energy Projects.xlsx
+++ b/01_Input/00_CO Validation/China - Energy Projects.xlsx
@@ -1,24 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27002"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27016"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://undp.sharepoint.com/sites/UNDPSustainableEnergyHub/Shared Documents/General/0. CURRENT FOLDER - Sustainable Energy Hub/05. Accounting for Progress to 500M/7. CO Validation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="315" documentId="11_08FE26C125E00B1458CDA3DB6442DFCE87A83DD1" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BEA390F3-B897-4922-A4DB-5F2A33E4D80F}"/>
+  <xr:revisionPtr revIDLastSave="332" documentId="11_08FE26C125E00B1458CDA3DB6442DFCE87A83DD1" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DE127025-B05D-4E7B-ADAD-F1F2A422DDB0}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="24780" windowHeight="13500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Projects (2)" sheetId="3" r:id="rId1"/>
-    <sheet name="Projects" sheetId="1" r:id="rId2"/>
-    <sheet name="Beneficiary Categories" sheetId="2" r:id="rId3"/>
+    <sheet name="Projects (3)" sheetId="4" r:id="rId1"/>
+    <sheet name="Projects (2)" sheetId="3" r:id="rId2"/>
+    <sheet name="Projects" sheetId="1" r:id="rId3"/>
+    <sheet name="Beneficiary Categories" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
@@ -35,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="111">
   <si>
     <t>Project ID</t>
   </si>
@@ -92,6 +96,9 @@
   </si>
   <si>
     <t>Indirect Taxonomy</t>
+  </si>
+  <si>
+    <t>Indirect Beneficiaries</t>
   </si>
   <si>
     <t>Hydrogen Economy Pilot Project</t>
@@ -154,7 +161,7 @@
     <t>Campaign Participant</t>
   </si>
   <si>
-    <t>Number of direct beneficiaries (people increased awareness in hydrogen and fuel cell vehicle as clean alternative transport solutions)</t>
+    <t>Number of beneficiaries (people increased awareness in hydrogen and fuel cell vehicle as clean alternative transport solutions)</t>
   </si>
   <si>
     <t>UNDP-China Greater Bay Area Hydrogen Economy Vocational</t>
@@ -205,19 +212,13 @@
     <t>http://open.undp.org/projects/00119439</t>
   </si>
   <si>
-    <t>n/a</t>
+    <t>NA</t>
   </si>
   <si>
     <t>-</t>
   </si>
   <si>
     <t>PV system; Biogas Plant. No energy figure target available as of yet.</t>
-  </si>
-  <si>
-    <t>Trilateral cooperation on Renewable Energy in Sri lanka</t>
-  </si>
-  <si>
-    <t>http://open.undp.org/projects/00119440</t>
   </si>
   <si>
     <t>GHG Emissions Reduction</t>
@@ -236,7 +237,7 @@
     <t>PIMS+</t>
   </si>
   <si>
-    <t>Other Energy Services</t>
+    <t>Energy Efficiency</t>
   </si>
   <si>
     <t>Number of direct 
@@ -288,6 +289,18 @@
   <si>
     <t>Number of trainees 
 (30% of female)</t>
+  </si>
+  <si>
+    <t>Number of direct beneficiaries (people increased awareness in hydrogen and fuel cell vehicle as clean alternative transport solutions)</t>
+  </si>
+  <si>
+    <t>Trilateral cooperation on Renewable Energy in Sri lanka</t>
+  </si>
+  <si>
+    <t>http://open.undp.org/projects/00119440</t>
+  </si>
+  <si>
+    <t>Other Energy Services</t>
   </si>
   <si>
     <t xml:space="preserve">Comments </t>
@@ -324,6 +337,9 @@
   <si>
     <t>The budget of the project is very high compared to the number of direct beneficiaries as outcome. Can you please double check the numbers ? 
 CO confirmation: The numbers has been updated. The beneficiaries will be a total of 61,500. This includes 60,000 people with enhanced knowledge and expertise in hydrogen and fuel cell industry and its role in decarbonising emissions intensive industries in China as results of 4 times consecutively of the annual event of UNDP Hydrogen Industry Confernce from 2019 to 2022, as well as 1,500 people gained technical skills or enhanced understanding in nurturing technical talent for the emerging hydrogen and fuel cell industry from 2022 to 2024.</t>
+  </si>
+  <si>
+    <t>n/a</t>
   </si>
   <si>
     <t xml:space="preserve">Annual energy savings </t>
@@ -613,7 +629,7 @@
     </xf>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -686,6 +702,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -698,15 +732,7 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="2" builtinId="3"/>
@@ -1012,11 +1038,613 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{469250B8-72DD-45CF-81B1-84922AA9D8BB}">
+  <dimension ref="A1:T14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="47" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="47.85546875" customWidth="1"/>
+    <col min="3" max="3" width="32.42578125" customWidth="1"/>
+    <col min="4" max="4" width="17.42578125" customWidth="1"/>
+    <col min="5" max="5" width="20.7109375" customWidth="1"/>
+    <col min="6" max="6" width="33.42578125" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" customWidth="1"/>
+    <col min="8" max="8" width="17.28515625" customWidth="1"/>
+    <col min="9" max="9" width="58.42578125" customWidth="1"/>
+    <col min="10" max="12" width="9.140625"/>
+    <col min="13" max="13" width="46.5703125" customWidth="1"/>
+    <col min="14" max="14" width="9.140625"/>
+    <col min="15" max="15" width="11.5703125" customWidth="1"/>
+    <col min="16" max="16" width="12.140625" customWidth="1"/>
+    <col min="20" max="20" width="23" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" ht="45.75">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="36" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" ht="99" customHeight="1">
+      <c r="A2" s="7">
+        <v>92045</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="9">
+        <v>11659101</v>
+      </c>
+      <c r="E2" s="10"/>
+      <c r="F2" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="11">
+        <v>0</v>
+      </c>
+      <c r="H2" s="11">
+        <v>2000000000</v>
+      </c>
+      <c r="I2" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="M2" s="21"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="P2" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q2" s="28"/>
+      <c r="R2" s="28"/>
+      <c r="S2" s="28"/>
+    </row>
+    <row r="3" spans="1:20" ht="99" customHeight="1">
+      <c r="A3" s="7"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11">
+        <v>190000</v>
+      </c>
+      <c r="I3" s="12"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="21"/>
+      <c r="N3" s="17"/>
+      <c r="O3" s="28"/>
+      <c r="P3" s="28"/>
+      <c r="Q3" s="28"/>
+      <c r="R3" s="28"/>
+      <c r="S3" s="28"/>
+    </row>
+    <row r="4" spans="1:20" ht="99" customHeight="1">
+      <c r="A4" s="7"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="G4" s="11"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="21"/>
+      <c r="N4" s="17"/>
+      <c r="O4" s="28"/>
+      <c r="P4" s="28"/>
+      <c r="Q4" s="28"/>
+      <c r="R4" s="28"/>
+      <c r="S4" s="28"/>
+      <c r="T4" s="11">
+        <v>2200000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" ht="99" customHeight="1">
+      <c r="A5" s="7">
+        <v>119001</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="9">
+        <v>7358188</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5" s="11">
+        <v>0</v>
+      </c>
+      <c r="H5" s="11">
+        <v>60000</v>
+      </c>
+      <c r="I5" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="M5" s="7"/>
+      <c r="N5" s="17"/>
+      <c r="O5" s="28"/>
+      <c r="P5" s="28"/>
+      <c r="Q5" s="28"/>
+      <c r="R5" s="28"/>
+      <c r="S5" s="28"/>
+    </row>
+    <row r="6" spans="1:20" ht="76.5">
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11">
+        <v>1500</v>
+      </c>
+      <c r="I6" s="12"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="25"/>
+      <c r="N6" s="17"/>
+      <c r="O6" s="28"/>
+      <c r="P6" s="28"/>
+      <c r="Q6" s="28"/>
+      <c r="R6" s="28"/>
+      <c r="S6" s="28"/>
+    </row>
+    <row r="7" spans="1:20" ht="30.75">
+      <c r="A7" s="7">
+        <v>119439</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="9">
+        <v>439401</v>
+      </c>
+      <c r="E7" s="29"/>
+      <c r="F7" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="G7" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="H7" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="I7" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="M7" s="21"/>
+      <c r="N7" s="17"/>
+      <c r="O7" s="28"/>
+      <c r="P7" s="28"/>
+      <c r="Q7" s="28"/>
+      <c r="R7" s="28"/>
+      <c r="S7" s="28"/>
+    </row>
+    <row r="8" spans="1:20" ht="75" customHeight="1">
+      <c r="A8" s="7"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="9">
+        <v>399069</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="F8" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="G8" s="11">
+        <v>0</v>
+      </c>
+      <c r="H8" s="10">
+        <v>40</v>
+      </c>
+      <c r="I8" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="M8" s="7"/>
+      <c r="N8" s="17"/>
+      <c r="O8" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="P8" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q8" s="28"/>
+      <c r="R8" s="28"/>
+      <c r="S8" s="28"/>
+    </row>
+    <row r="9" spans="1:20" ht="45.75">
+      <c r="A9" s="7">
+        <v>6618</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" s="7">
+        <v>9343379</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="G9" s="11">
+        <v>0</v>
+      </c>
+      <c r="H9" s="10">
+        <v>1200000</v>
+      </c>
+      <c r="I9" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="17"/>
+      <c r="O9" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="P9" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q9" s="28"/>
+      <c r="R9" s="28"/>
+      <c r="S9" s="28"/>
+    </row>
+    <row r="10" spans="1:20" ht="45.75">
+      <c r="A10" s="7"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="E10" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="F10" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="G10" s="31">
+        <v>0</v>
+      </c>
+      <c r="H10" s="29">
+        <v>35990000</v>
+      </c>
+      <c r="I10" s="12"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="17"/>
+      <c r="O10" s="28"/>
+      <c r="P10" s="28"/>
+      <c r="Q10" s="28"/>
+      <c r="R10" s="28"/>
+      <c r="S10" s="28"/>
+    </row>
+    <row r="11" spans="1:20" ht="60.75">
+      <c r="A11" s="7">
+        <v>6431</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D11" s="7">
+        <v>8932420</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="G11" s="10">
+        <v>0</v>
+      </c>
+      <c r="H11" s="10">
+        <v>918500</v>
+      </c>
+      <c r="I11" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="J11" s="7"/>
+      <c r="K11" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="17"/>
+      <c r="O11" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="P11" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q11" s="28"/>
+      <c r="R11" s="28"/>
+      <c r="S11" s="28"/>
+    </row>
+    <row r="12" spans="1:20" ht="45.75">
+      <c r="A12" s="7"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="G12" s="7">
+        <v>0</v>
+      </c>
+      <c r="H12" s="15">
+        <v>4079000</v>
+      </c>
+      <c r="I12" s="12"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="17"/>
+      <c r="O12" s="28"/>
+      <c r="P12" s="28"/>
+      <c r="Q12" s="28"/>
+      <c r="R12" s="28"/>
+      <c r="S12" s="28"/>
+    </row>
+    <row r="13" spans="1:20" ht="30.75">
+      <c r="A13" s="7">
+        <v>5395</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D13" s="7">
+        <v>8932420</v>
+      </c>
+      <c r="E13" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="G13" s="10">
+        <v>0</v>
+      </c>
+      <c r="H13" s="10">
+        <v>55700</v>
+      </c>
+      <c r="I13" s="12"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="17"/>
+      <c r="O13" s="28"/>
+      <c r="P13" s="28"/>
+      <c r="Q13" s="28"/>
+      <c r="R13" s="28"/>
+      <c r="S13" s="28"/>
+    </row>
+    <row r="14" spans="1:20" ht="30.75">
+      <c r="A14" s="7">
+        <v>144123</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="D14" s="15">
+        <v>697979</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="G14" s="7">
+        <v>0</v>
+      </c>
+      <c r="H14" s="10">
+        <v>1000</v>
+      </c>
+      <c r="I14" s="17"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="23">
+        <v>0.3</v>
+      </c>
+      <c r="L14" s="7"/>
+      <c r="M14" s="7"/>
+      <c r="N14" s="17"/>
+      <c r="O14" s="28"/>
+      <c r="P14" s="28"/>
+      <c r="Q14" s="28"/>
+      <c r="R14" s="28"/>
+      <c r="S14" s="28"/>
+    </row>
+  </sheetData>
+  <dataValidations count="6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S2:S14" xr:uid="{72CEF812-D2E2-43F6-8B00-DD63DD121E13}">
+      <formula1>"Electricity Access, Energy Efficiency, Renewable EnergyEnergy Infrastructure,   Transport, Digital &amp; Data, Clean Cooking, Decarbonization, Hydrogen, Off-Grid, On-Grid"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R2:R14" xr:uid="{1589BC3A-486B-42B3-BA77-24A39E336A02}">
+      <formula1>"NDC Support, National Strategy, Legal Framework,Incentives and Support, Government Capacity-Building, Carbon Pricing and Monitoring, Financing Model, Business Model"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2:Q14" xr:uid="{15839CC9-A8F4-4716-BF50-9AD73BC88804}">
+      <formula1>"AMP, PUDC, Solar4Health, Action Opportunities, Italy UNDP Energy Partnership"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2:P14" xr:uid="{541E7D9E-BB11-47D0-A12C-480695695E6B}">
+      <formula1>"Electricity Access, Energy Efficiency, Clean Cooking, Renewable Energy"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:O14" xr:uid="{026472E8-8734-4E3C-9DC0-746962E6934C}">
+      <formula1>"Accelerating just energy transition, Close the gap on energy access, Scale up energy finance"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E8 E10" xr:uid="{FC9317DC-EF58-427D-A8CA-2A8C092C0341}"/>
+  </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{281EDE05-8386-4C9C-B17A-3E45AF046E95}"/>
+    <hyperlink ref="C5" r:id="rId2" xr:uid="{AB06F8BD-8706-47C2-8926-FDA293D0C911}"/>
+    <hyperlink ref="C7" r:id="rId3" xr:uid="{161A50F2-08CC-402A-8FF6-AF96158ED06C}"/>
+    <hyperlink ref="C14" r:id="rId4" xr:uid="{54259927-69D7-40F6-87AA-FA843C573FB5}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{4BBA7AE6-16A2-42B2-A97A-B889096800CA}">
+          <x14:formula1>
+            <xm:f>'Beneficiary Categories'!$B$2:$B$16</xm:f>
+          </x14:formula1>
+          <xm:sqref>I12 E14:E27 E11 E2:E7</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D181BCF-2826-406C-B35E-C98AF3DC2A25}">
   <dimension ref="A1:S14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="47" workbookViewId="0">
-      <selection activeCell="O1" sqref="O1:S14"/>
+    <sheetView zoomScale="106" zoomScaleNormal="47" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -1075,22 +1703,22 @@
       <c r="M1" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="30" t="s">
+      <c r="N1" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="31" t="s">
+      <c r="O1" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="31" t="s">
+      <c r="P1" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="31" t="s">
+      <c r="Q1" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="31" t="s">
+      <c r="R1" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="31" t="s">
+      <c r="S1" s="27" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1099,17 +1727,17 @@
         <v>92045</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D2" s="9">
         <v>11659101</v>
       </c>
       <c r="E2" s="10"/>
       <c r="F2" s="24" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G2" s="11">
         <v>0</v>
@@ -1118,26 +1746,26 @@
         <v>2000000000</v>
       </c>
       <c r="I2" s="12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K2" s="7"/>
       <c r="L2" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M2" s="21"/>
       <c r="N2" s="17"/>
-      <c r="O2" s="32" t="s">
-        <v>25</v>
-      </c>
-      <c r="P2" s="32" t="s">
+      <c r="O2" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="Q2" s="32"/>
-      <c r="R2" s="32"/>
-      <c r="S2" s="32"/>
+      <c r="P2" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q2" s="28"/>
+      <c r="R2" s="28"/>
+      <c r="S2" s="28"/>
     </row>
     <row r="3" spans="1:19" ht="99" customHeight="1">
       <c r="A3" s="7"/>
@@ -1145,10 +1773,10 @@
       <c r="C3" s="8"/>
       <c r="D3" s="9"/>
       <c r="E3" s="10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F3" s="19" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G3" s="11"/>
       <c r="H3" s="11">
@@ -1160,11 +1788,11 @@
       <c r="L3" s="7"/>
       <c r="M3" s="21"/>
       <c r="N3" s="17"/>
-      <c r="O3" s="32"/>
-      <c r="P3" s="32"/>
-      <c r="Q3" s="32"/>
-      <c r="R3" s="32"/>
-      <c r="S3" s="32"/>
+      <c r="O3" s="28"/>
+      <c r="P3" s="28"/>
+      <c r="Q3" s="28"/>
+      <c r="R3" s="28"/>
+      <c r="S3" s="28"/>
     </row>
     <row r="4" spans="1:19" ht="99" customHeight="1">
       <c r="A4" s="7"/>
@@ -1172,10 +1800,10 @@
       <c r="C4" s="8"/>
       <c r="D4" s="9"/>
       <c r="E4" s="10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F4" s="19" t="s">
-        <v>30</v>
+        <v>63</v>
       </c>
       <c r="G4" s="11"/>
       <c r="H4" s="11">
@@ -1187,30 +1815,30 @@
       <c r="L4" s="7"/>
       <c r="M4" s="21"/>
       <c r="N4" s="17"/>
-      <c r="O4" s="32"/>
-      <c r="P4" s="32"/>
-      <c r="Q4" s="32"/>
-      <c r="R4" s="32"/>
-      <c r="S4" s="32"/>
+      <c r="O4" s="28"/>
+      <c r="P4" s="28"/>
+      <c r="Q4" s="28"/>
+      <c r="R4" s="28"/>
+      <c r="S4" s="28"/>
     </row>
     <row r="5" spans="1:19" ht="99" customHeight="1">
       <c r="A5" s="7">
         <v>119001</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D5" s="9">
         <v>7358188</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F5" s="24" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G5" s="11">
         <v>0</v>
@@ -1219,22 +1847,22 @@
         <v>60000</v>
       </c>
       <c r="I5" s="12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K5" s="7"/>
       <c r="L5" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M5" s="7"/>
       <c r="N5" s="17"/>
-      <c r="O5" s="32"/>
-      <c r="P5" s="32"/>
-      <c r="Q5" s="32"/>
-      <c r="R5" s="32"/>
-      <c r="S5" s="32"/>
+      <c r="O5" s="28"/>
+      <c r="P5" s="28"/>
+      <c r="Q5" s="28"/>
+      <c r="R5" s="28"/>
+      <c r="S5" s="28"/>
     </row>
     <row r="6" spans="1:19" ht="76.5">
       <c r="A6" s="7"/>
@@ -1242,10 +1870,10 @@
       <c r="C6" s="8"/>
       <c r="D6" s="9"/>
       <c r="E6" s="10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F6" s="19" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G6" s="11"/>
       <c r="H6" s="11">
@@ -1257,71 +1885,71 @@
       <c r="L6" s="7"/>
       <c r="M6" s="25"/>
       <c r="N6" s="17"/>
-      <c r="O6" s="32"/>
-      <c r="P6" s="32"/>
-      <c r="Q6" s="32"/>
-      <c r="R6" s="32"/>
-      <c r="S6" s="32"/>
+      <c r="O6" s="28"/>
+      <c r="P6" s="28"/>
+      <c r="Q6" s="28"/>
+      <c r="R6" s="28"/>
+      <c r="S6" s="28"/>
     </row>
     <row r="7" spans="1:19" ht="30.75">
       <c r="A7" s="7">
         <v>119439</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D7" s="9">
         <v>439401</v>
       </c>
       <c r="E7" s="10"/>
       <c r="F7" s="11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I7" s="12" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K7" s="7"/>
       <c r="L7" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M7" s="21"/>
       <c r="N7" s="17"/>
-      <c r="O7" s="32"/>
-      <c r="P7" s="32"/>
-      <c r="Q7" s="32"/>
-      <c r="R7" s="32"/>
-      <c r="S7" s="32"/>
+      <c r="O7" s="28"/>
+      <c r="P7" s="28"/>
+      <c r="Q7" s="28"/>
+      <c r="R7" s="28"/>
+      <c r="S7" s="28"/>
     </row>
     <row r="8" spans="1:19" ht="75" customHeight="1">
       <c r="A8" s="7">
         <v>119440</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>41</v>
+        <v>64</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>42</v>
+        <v>65</v>
       </c>
       <c r="D8" s="9">
         <v>399069</v>
       </c>
       <c r="E8" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="F8" s="22" t="s">
         <v>43</v>
-      </c>
-      <c r="F8" s="22" t="s">
-        <v>44</v>
       </c>
       <c r="G8" s="11">
         <v>0</v>
@@ -1330,45 +1958,45 @@
         <v>40</v>
       </c>
       <c r="I8" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K8" s="7"/>
       <c r="L8" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M8" s="7"/>
       <c r="N8" s="17"/>
-      <c r="O8" s="32" t="s">
-        <v>25</v>
-      </c>
-      <c r="P8" s="32" t="s">
+      <c r="O8" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="Q8" s="32"/>
-      <c r="R8" s="32"/>
-      <c r="S8" s="32"/>
+      <c r="P8" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q8" s="28"/>
+      <c r="R8" s="28"/>
+      <c r="S8" s="28"/>
     </row>
     <row r="9" spans="1:19" ht="76.5">
       <c r="A9" s="7">
         <v>6618</v>
       </c>
       <c r="B9" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" s="7" t="s">
         <v>46</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>47</v>
       </c>
       <c r="D9" s="7">
         <v>9343379</v>
       </c>
       <c r="E9" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="F9" s="10" t="s">
         <v>48</v>
-      </c>
-      <c r="F9" s="10" t="s">
-        <v>49</v>
       </c>
       <c r="G9" s="11">
         <v>0</v>
@@ -1377,41 +2005,41 @@
         <v>1200000</v>
       </c>
       <c r="I9" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J9" s="7"/>
       <c r="K9" s="7"/>
       <c r="L9" s="7"/>
       <c r="M9" s="7"/>
       <c r="N9" s="17"/>
-      <c r="O9" s="32" t="s">
-        <v>25</v>
-      </c>
-      <c r="P9" s="32" t="s">
+      <c r="O9" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="Q9" s="32"/>
-      <c r="R9" s="32"/>
-      <c r="S9" s="32"/>
+      <c r="P9" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q9" s="28"/>
+      <c r="R9" s="28"/>
+      <c r="S9" s="28"/>
     </row>
     <row r="10" spans="1:19" ht="45.75">
       <c r="A10" s="7">
         <v>6618</v>
       </c>
       <c r="B10" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" s="7" t="s">
         <v>46</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>47</v>
       </c>
       <c r="D10" s="7">
         <v>9343379</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F10" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G10" s="11">
         <v>0</v>
@@ -1425,30 +2053,30 @@
       <c r="L10" s="7"/>
       <c r="M10" s="7"/>
       <c r="N10" s="17"/>
-      <c r="O10" s="32"/>
-      <c r="P10" s="32"/>
-      <c r="Q10" s="32"/>
-      <c r="R10" s="32"/>
-      <c r="S10" s="32"/>
+      <c r="O10" s="28"/>
+      <c r="P10" s="28"/>
+      <c r="Q10" s="28"/>
+      <c r="R10" s="28"/>
+      <c r="S10" s="28"/>
     </row>
     <row r="11" spans="1:19" ht="60.75">
       <c r="A11" s="7">
         <v>6431</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D11" s="7">
         <v>8932420</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G11" s="10">
         <v>0</v>
@@ -1457,7 +2085,7 @@
         <v>918500</v>
       </c>
       <c r="I11" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J11" s="7"/>
       <c r="K11" s="23">
@@ -1466,34 +2094,34 @@
       <c r="L11" s="7"/>
       <c r="M11" s="7"/>
       <c r="N11" s="17"/>
-      <c r="O11" s="32" t="s">
+      <c r="O11" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="P11" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="P11" s="32" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q11" s="32"/>
-      <c r="R11" s="32"/>
-      <c r="S11" s="32"/>
+      <c r="Q11" s="28"/>
+      <c r="R11" s="28"/>
+      <c r="S11" s="28"/>
     </row>
     <row r="12" spans="1:19" ht="45.75">
       <c r="A12" s="7">
         <v>6431</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D12" s="7">
         <v>8932420</v>
       </c>
       <c r="E12" s="22" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F12" s="14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G12" s="7">
         <v>0</v>
@@ -1507,30 +2135,30 @@
       <c r="L12" s="7"/>
       <c r="M12" s="7"/>
       <c r="N12" s="17"/>
-      <c r="O12" s="32"/>
-      <c r="P12" s="32"/>
-      <c r="Q12" s="32"/>
-      <c r="R12" s="32"/>
-      <c r="S12" s="32"/>
+      <c r="O12" s="28"/>
+      <c r="P12" s="28"/>
+      <c r="Q12" s="28"/>
+      <c r="R12" s="28"/>
+      <c r="S12" s="28"/>
     </row>
     <row r="13" spans="1:19" ht="30.75">
       <c r="A13" s="7">
         <v>5395</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D13" s="7">
         <v>8932420</v>
       </c>
       <c r="E13" s="22" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G13" s="10">
         <v>0</v>
@@ -1544,30 +2172,30 @@
       <c r="L13" s="7"/>
       <c r="M13" s="7"/>
       <c r="N13" s="17"/>
-      <c r="O13" s="32"/>
-      <c r="P13" s="32"/>
-      <c r="Q13" s="32"/>
-      <c r="R13" s="32"/>
-      <c r="S13" s="32"/>
+      <c r="O13" s="28"/>
+      <c r="P13" s="28"/>
+      <c r="Q13" s="28"/>
+      <c r="R13" s="28"/>
+      <c r="S13" s="28"/>
     </row>
     <row r="14" spans="1:19" ht="30.75">
       <c r="A14" s="7">
         <v>144123</v>
       </c>
       <c r="B14" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C14" s="16" t="s">
         <v>60</v>
-      </c>
-      <c r="C14" s="16" t="s">
-        <v>61</v>
       </c>
       <c r="D14" s="15">
         <v>697979</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>62</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>63</v>
       </c>
       <c r="G14" s="7">
         <v>0</v>
@@ -1583,11 +2211,11 @@
       <c r="L14" s="7"/>
       <c r="M14" s="7"/>
       <c r="N14" s="17"/>
-      <c r="O14" s="32"/>
-      <c r="P14" s="32"/>
-      <c r="Q14" s="32"/>
-      <c r="R14" s="32"/>
-      <c r="S14" s="32"/>
+      <c r="O14" s="28"/>
+      <c r="P14" s="28"/>
+      <c r="Q14" s="28"/>
+      <c r="R14" s="28"/>
+      <c r="S14" s="28"/>
     </row>
   </sheetData>
   <dataValidations count="6">
@@ -1632,7 +2260,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K11"/>
   <sheetViews>
@@ -1685,7 +2313,7 @@
         <v>9</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="204" customHeight="1">
@@ -1693,32 +2321,32 @@
         <v>92045</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D2" s="9">
         <v>11659101</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="G2" s="11">
         <v>0</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="I2" s="12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J2" s="7"/>
       <c r="K2" s="18" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="198">
@@ -1726,32 +2354,32 @@
         <v>119001</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D3" s="9">
         <v>7358188</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="F3" s="19" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="G3" s="11">
         <v>0</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="I3" s="12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J3" s="7"/>
       <c r="K3" s="18" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="32.1">
@@ -1759,28 +2387,28 @@
         <v>119439</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D4" s="9">
         <v>439401</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I4" s="12" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J4" s="7"/>
       <c r="K4" s="7"/>
@@ -1790,28 +2418,28 @@
         <v>119440</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>41</v>
+        <v>64</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>42</v>
+        <v>65</v>
       </c>
       <c r="D5" s="9">
         <v>399069</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="F5" s="13" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="G5" s="11">
         <v>0</v>
       </c>
       <c r="H5" s="10" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="I5" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J5" s="7"/>
       <c r="K5" s="7"/>
@@ -1821,19 +2449,19 @@
         <v>6618</v>
       </c>
       <c r="B6" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" s="7" t="s">
         <v>46</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>47</v>
       </c>
       <c r="D6" s="7">
         <v>9343379</v>
       </c>
       <c r="E6" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="F6" s="10" t="s">
         <v>48</v>
-      </c>
-      <c r="F6" s="10" t="s">
-        <v>49</v>
       </c>
       <c r="G6" s="11">
         <v>0</v>
@@ -1842,7 +2470,7 @@
         <v>1200000</v>
       </c>
       <c r="I6" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J6" s="7"/>
       <c r="K6" s="7"/>
@@ -1852,19 +2480,19 @@
         <v>6618</v>
       </c>
       <c r="B7" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" s="7" t="s">
         <v>46</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>47</v>
       </c>
       <c r="D7" s="7">
         <v>9343379</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="G7" s="11">
         <v>0</v>
@@ -1881,19 +2509,19 @@
         <v>6431</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D8" s="7">
         <v>8932420</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G8" s="10">
         <v>0</v>
@@ -1902,7 +2530,7 @@
         <v>918500</v>
       </c>
       <c r="I8" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J8" s="7"/>
       <c r="K8" s="7"/>
@@ -1912,19 +2540,19 @@
         <v>6431</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D9" s="7">
         <v>8932420</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="F9" s="14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G9" s="7">
         <v>0</v>
@@ -1941,19 +2569,19 @@
         <v>5395</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D10" s="7">
         <v>8932420</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="G10" s="10">
         <v>0</v>
@@ -1970,19 +2598,19 @@
         <v>144123</v>
       </c>
       <c r="B11" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C11" s="16" t="s">
         <v>60</v>
-      </c>
-      <c r="C11" s="16" t="s">
-        <v>61</v>
       </c>
       <c r="D11" s="15">
         <v>697979</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>62</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>63</v>
       </c>
       <c r="G11" s="7">
         <v>0</v>
@@ -2019,7 +2647,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C16"/>
   <sheetViews>
@@ -2032,160 +2660,160 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="26" t="s">
-        <v>79</v>
+      <c r="A2" s="32" t="s">
+        <v>83</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C2" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="26"/>
+      <c r="A3" s="32"/>
       <c r="B3" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="C3" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="26"/>
+      <c r="A4" s="32"/>
       <c r="B4" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="C4" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="27" t="s">
-        <v>85</v>
+      <c r="A5" s="33" t="s">
+        <v>89</v>
       </c>
       <c r="B5" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C5" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="27"/>
+      <c r="A6" s="33"/>
       <c r="B6" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="C6" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="27"/>
+      <c r="A7" s="33"/>
       <c r="B7" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C7" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="27"/>
+      <c r="A8" s="33"/>
       <c r="B8" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C8" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="27"/>
+      <c r="A9" s="33"/>
       <c r="B9" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="C9" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="28" t="s">
-        <v>94</v>
+      <c r="A10" s="34" t="s">
+        <v>98</v>
       </c>
       <c r="B10" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="C10" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="28"/>
+      <c r="A11" s="34"/>
       <c r="B11" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="C11" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="29" t="s">
-        <v>99</v>
+      <c r="A12" s="35" t="s">
+        <v>103</v>
       </c>
       <c r="B12" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C12" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="29"/>
+      <c r="A13" s="35"/>
       <c r="B13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C13" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="29"/>
+      <c r="A14" s="35"/>
       <c r="B14" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C14" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B15" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="C15" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="3" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B16" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C16" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -2200,26 +2828,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="720239d0-7d3a-4257-bb40-a2a3b1409bb2">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="fb9e4d32-074f-4c04-81ef-e811753dfd59" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010081A889D055969F449BCDADF9B8A9C0F0" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0d2b1cfbe0bead55dc04bff20486709a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="720239d0-7d3a-4257-bb40-a2a3b1409bb2" xmlns:ns3="fb9e4d32-074f-4c04-81ef-e811753dfd59" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a3ed273af6605fa6a207dd3965c2d078" ns2:_="" ns3:_="">
     <xsd:import namespace="720239d0-7d3a-4257-bb40-a2a3b1409bb2"/>
@@ -2468,8 +3076,28 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="720239d0-7d3a-4257-bb40-a2a3b1409bb2">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="fb9e4d32-074f-4c04-81ef-e811753dfd59" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{839E5365-A983-4C01-8EBC-B9505295B805}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2B04F172-A89F-4B55-AD3C-AB754D607A0E}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2477,5 +3105,5 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2B04F172-A89F-4B55-AD3C-AB754D607A0E}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{839E5365-A983-4C01-8EBC-B9505295B805}"/>
 </file>
--- a/01_Input/00_CO Validation/China - Energy Projects.xlsx
+++ b/01_Input/00_CO Validation/China - Energy Projects.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27221"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27421"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://undp.sharepoint.com/sites/UNDPSustainableEnergyHub/Shared Documents/General/0. CURRENT FOLDER - Sustainable Energy Hub/05. Accounting for Progress to 500M/7. CO Validation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="404" documentId="11_08FE26C125E00B1458CDA3DB6442DFCE87A83DD1" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{27D16CC3-4198-4DC3-9EA0-7F3B786BB2E2}"/>
+  <xr:revisionPtr revIDLastSave="407" documentId="11_08FE26C125E00B1458CDA3DB6442DFCE87A83DD1" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1761DBEB-C99C-4985-8AD3-84E084943DD4}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="24780" windowHeight="13500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -762,9 +762,9 @@
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Comma" xfId="2" builtinId="3"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="2" builtinId="3"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1068,8 +1068,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{469250B8-72DD-45CF-81B1-84922AA9D8BB}">
   <dimension ref="A1:U14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" zoomScale="106" zoomScaleNormal="47" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:U2"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="106" zoomScaleNormal="47" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -1753,7 +1753,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D181BCF-2826-406C-B35E-C98AF3DC2A25}">
   <dimension ref="A1:S14"/>
   <sheetViews>
-    <sheetView topLeftCell="C7" zoomScale="106" zoomScaleNormal="47" workbookViewId="0">
+    <sheetView topLeftCell="C9" zoomScale="106" zoomScaleNormal="47" workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
@@ -1765,7 +1765,7 @@
     <col min="5" max="5" width="20.7109375" customWidth="1"/>
     <col min="6" max="6" width="33.42578125" customWidth="1"/>
     <col min="7" max="7" width="12.7109375" customWidth="1"/>
-    <col min="8" max="8" width="17.28515625" customWidth="1"/>
+    <col min="8" max="8" width="21.5703125" customWidth="1"/>
     <col min="9" max="9" width="58.42578125" customWidth="1"/>
     <col min="10" max="10" width="9.140625"/>
     <col min="14" max="14" width="11.5703125" customWidth="1"/>
@@ -2959,28 +2959,8 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="720239d0-7d3a-4257-bb40-a2a3b1409bb2">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="fb9e4d32-074f-4c04-81ef-e811753dfd59" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010081A889D055969F449BCDADF9B8A9C0F0" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0d2b1cfbe0bead55dc04bff20486709a">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="720239d0-7d3a-4257-bb40-a2a3b1409bb2" xmlns:ns3="fb9e4d32-074f-4c04-81ef-e811753dfd59" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a3ed273af6605fa6a207dd3965c2d078" ns2:_="" ns3:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010081A889D055969F449BCDADF9B8A9C0F0" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="dd25160c21e587dbb66203dfb8c7aa52">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="720239d0-7d3a-4257-bb40-a2a3b1409bb2" xmlns:ns3="fb9e4d32-074f-4c04-81ef-e811753dfd59" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="05ccd5be12d50c438f9536854e894bcb" ns2:_="" ns3:_="">
     <xsd:import namespace="720239d0-7d3a-4257-bb40-a2a3b1409bb2"/>
     <xsd:import namespace="fb9e4d32-074f-4c04-81ef-e811753dfd59"/>
     <xsd:element name="properties">
@@ -3005,6 +2985,7 @@
                 <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
                 <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -3084,6 +3065,11 @@
     <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="24" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="25" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
       </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
@@ -3227,8 +3213,28 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="720239d0-7d3a-4257-bb40-a2a3b1409bb2">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="fb9e4d32-074f-4c04-81ef-e811753dfd59" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{64DED545-7290-47B1-99BA-30F4D9297E49}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B9415136-E1C2-4DAA-A6B7-6D571CC0ECE8}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3236,5 +3242,5 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2B04F172-A89F-4B55-AD3C-AB754D607A0E}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{64DED545-7290-47B1-99BA-30F4D9297E49}"/>
 </file>